--- a/frans4de.xlsx
+++ b/frans4de.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="3" activeTab="9" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="3" activeTab="14" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="frans4de" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="défi4m1" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="défi4m2" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="défi4m3" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="défi5m1" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="défi5m2" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="défi5m3" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3935,6 +3938,1551 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>une augmentation</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>een verhoging</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>un banquier, une banquière</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>een bankier, een bankbediende</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>un besion financier</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>een financiële nood</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>le bouche-à-oreille</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>de mond-tot-mondreclame</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>la chirurgie esthétique</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>de plastische chirurgie</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>un commerçant du coin, une commerçante de coin</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>een buurthandelaar</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>un contrat de travail</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>een werkcontract</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>des fringues</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>kleren</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>le jardinage</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>het tuinieren</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>le lavage de voitures</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>het wassen van de wagens</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>une loi</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>een wet</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>un mineur, une mineure</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>een minderjarige</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>une raison</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>een reden</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>une rémunération</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>een vergoeding</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>un résultat scolaire</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>een schoolresultaat</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>une solution</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>een oplossing</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>une source de revenus</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>een bron van inkomsten</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>une tactique</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>een tactiek, een specifieke werkwijze</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>dépendant, depandante [de]</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>afhankeleijk [van]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>hebdomadaire</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>wekelijks</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>interdit, interdite</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>verboden</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>légal, légale</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>legaal, wettelijk</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>mensuel, mensuelle</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>maandelijks</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>permis, permise</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>toegelaten</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>réel, réelle</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>echt</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>virtuel, virtuelle</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>virtueel</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>autoriser</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>wettelijk toestaan</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>concerner</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>aangaan</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>centenir</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>inhouden, bevatten</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>économiser</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>sparen, besparen</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>effectuer</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>uitvoeren</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>publier</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>uitgeven, openbaar maken</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>revendre</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>terug verkopen</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>s'équiper en</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>zich uitrusten met</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>s'occuper de</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>zich bezighouden met</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>surveiller</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>bewaken, surveilleren</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>cela vaut aussi pour...</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>dat geld ook voor...</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>conclure un accord [avec]</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>een akkoord sluiten [met]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>éprouver le besoin de</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>de nood ervaren om</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>faire appel à</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>beroep doen op</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>gérer son budget</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>zijn budget beheren</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>il existe des moyens de</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>er bestaan middelen om</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>[il n'est] pas question de</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>[er is] geen sprake van</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>passer à la force</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>overgaan tot geweld</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>proposer des services</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>diensten aanbieden</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ressentir un besoin financier</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>een financiële nood ervaren</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>cependant</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>nochtans</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>de proximité</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>in de nabijheid, buurt-</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>en échange de</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>in ruil voor</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>en plus de</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>bovenop</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>évidemment</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>natuurlijk</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>une aide-magasin, une aide-magasin</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>een winkelhulp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>un animateur, une animatrice</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>een animator, animatrice</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>un atout</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>een troef, een voordeel</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>un badge</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>een naamplaatje, een badge</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>une bourse</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>een beurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>un cassier, une cassière</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>een kassier, kassierster</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>un cueilleur, une cueilleuse</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>een plukker, plukster</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>un dogsitteur, une dogsitteuse</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>een dogsitter</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>un entretien</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>een [solicitatie]gesprek, een onderhoud</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>une expérience</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>een ervaring</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>une fermeture éclair</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>een ritssluiting</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>une folie</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>iets geks, een uitspatting</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>un job [d']étudiant</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>een studentenjob</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>un jour férié</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>een feestdag</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>une lettre de motivation</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>een motivatiebrief, een solicitatiebrief</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>un livreur, une livreuse</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>een bezorger, bezorgster</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>un lycéen, une lycéenne</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>een student, studente [15-16]+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>un magasin d'art</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>een kunstwinkel</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>la mise en ordre</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>het in orde brengen</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>un moniteur, une monitrice</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>een instructeur, een instructrice</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>le nettoyage</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>het poetsen</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>la peinture à l'huile</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>de olieverf</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>un plongeur, une plongeuse</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>een afwasser, afwasster</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>un prof particulier, une prof particulière</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>een privéleraar, een privélerares</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>un promo boy, une promo girl</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>een promojongen, een promomeisje</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>le rangement</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>het opruimen</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>un rendez-vous</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>een afspraak</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>un serveur, une serveuse</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>een ober, serveerster</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>un tatouage</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>een tatoeage</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>une trace</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>een spoor</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>un tube de peinture</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>een verftube</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>disponsible</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>beschikbaar, vrij</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>excité, excitée</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>opgewonden</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>extraordinaire</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>buitengewoon</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>gênant, gênante</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>genant, beschamend</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>inexplicable</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>onverklaarbaar</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>majeur, majeure</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>zeer belangerijk</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ordinaire</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>gewoon</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>passionnant, passionnante</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>spannend</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>accueillir</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>onthalen</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>fabriquer</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>maken, fabriceren</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ignorer</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>negeren, niet weten</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>postuler</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>solliciteren</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>s'écrier</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>[uit]schreeuwen</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>vibrer</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>trillen</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>à temps partiel</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>deeltijds</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>a temps plein</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>voltijds</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>avoir les cheveux couleur miel</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>honingkleurige haren hebben</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>avoir les cheveux en bataille</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>verwarde haren hebben</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>mettre en valeur</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>benadrukken, accentueren</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ça m'étonnerait</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>dat zou me verbazen</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Cela vous arrange?</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Past dat voor u?</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Cela vous convient?</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Past dat voor u?</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Pas de souci!</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Geen probleem!</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>un agent immobilier, une agente immobilière</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>een immobiliënagent</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>un chirurgien, une chirurgienne</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>een chirurg, chirurge</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>un criminologue, une criminologue</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>een criminoloog, een criminologe</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>un écrivain, une écrivaine</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>een schrijver, een schrijfster</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>un instituteur, une institutrice</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>een leraar, lerares [lagere school]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>un père au foyer, une mère au foyer</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>een huisvader, huismoeder</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>un projet</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>een plan, een project</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>un psychiatre, une psychiatre</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>een psychiater</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>un psychologue, une psychologue</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>een psycholoog, psychologe</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>un sage-homme, une sage-femme</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>een verloskundige, een vroedvrouw</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>les sciences humaines</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>de humane wetenschappen</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>un scientifique, une scientifique</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>een wetenschapper, een wetenschapster</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>souhaiter</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>wensen</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>cultiver des légumes</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>groenten kweken</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>cultiver la terre</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>de grond bewerken</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>être au chomage</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>werkloos zijn</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>être retraité, retraitée</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>op rust, gepensioneerd zijn</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>prendre soin de</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>zorg dragen voor</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>travailler à son compte</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>zelfstandige zijn, voor eigen rekening werken</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/frans4de.xlsx
+++ b/frans4de.xlsx
@@ -3944,7 +3944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3963,6 +3963,11 @@
           <t>een verhoging</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3975,16 +3980,26 @@
           <t>een bankier, een bankbediende</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>un besion financier</t>
+          <t>un besoin financier</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>een financiële nood</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>correct</t>
         </is>
       </c>
     </row>
@@ -3999,6 +4014,11 @@
           <t>de mond-tot-mondreclame</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4011,16 +4031,26 @@
           <t>de plastische chirurgie</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>un commerçant du coin, une commerçante de coin</t>
+          <t>un commerçant du coin, une commerçante du coin</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>een buurthandelaar</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>correct</t>
         </is>
       </c>
     </row>
@@ -4035,6 +4065,11 @@
           <t>een werkcontract</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4047,6 +4082,11 @@
           <t>kleren</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4059,6 +4099,11 @@
           <t>het tuinieren</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4071,6 +4116,11 @@
           <t>het wassen van de wagens</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4083,6 +4133,11 @@
           <t>een wet</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4095,6 +4150,11 @@
           <t>een minderjarige</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4107,6 +4167,11 @@
           <t>een reden</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4119,6 +4184,11 @@
           <t>een vergoeding</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4131,6 +4201,11 @@
           <t>een schoolresultaat</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4143,6 +4218,11 @@
           <t>een oplossing</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4155,6 +4235,11 @@
           <t>een bron van inkomsten</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4167,16 +4252,26 @@
           <t>een tactiek, een specifieke werkwijze</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dépendant, depandante [de]</t>
+          <t>dépendant, dépendante [de]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>afhankeleijk [van]</t>
+          <t>afhankelijk [van]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>correct</t>
         </is>
       </c>
     </row>
@@ -4191,6 +4286,11 @@
           <t>wekelijks</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4203,6 +4303,11 @@
           <t>verboden</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4215,6 +4320,11 @@
           <t>legaal, wettelijk</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4227,6 +4337,11 @@
           <t>maandelijks</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4239,6 +4354,11 @@
           <t>toegelaten</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4251,6 +4371,11 @@
           <t>echt</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4263,6 +4388,11 @@
           <t>virtueel</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4275,6 +4405,11 @@
           <t>wettelijk toestaan</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4287,16 +4422,26 @@
           <t>aangaan</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>centenir</t>
+          <t>contenir</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>inhouden, bevatten</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>correct</t>
         </is>
       </c>
     </row>
@@ -4311,6 +4456,11 @@
           <t>sparen, besparen</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4323,6 +4473,11 @@
           <t>uitvoeren</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4335,6 +4490,11 @@
           <t>uitgeven, openbaar maken</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4347,6 +4507,11 @@
           <t>terug verkopen</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4359,6 +4524,11 @@
           <t>zich uitrusten met</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4371,6 +4541,11 @@
           <t>zich bezighouden met</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4383,6 +4558,11 @@
           <t>bewaken, surveilleren</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4395,6 +4575,11 @@
           <t>dat geld ook voor...</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4407,6 +4592,11 @@
           <t>een akkoord sluiten [met]</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4419,6 +4609,11 @@
           <t>de nood ervaren om</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4431,6 +4626,11 @@
           <t>beroep doen op</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4443,6 +4643,11 @@
           <t>zijn budget beheren</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4455,6 +4660,11 @@
           <t>er bestaan middelen om</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4467,6 +4677,11 @@
           <t>[er is] geen sprake van</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4479,6 +4694,11 @@
           <t>overgaan tot geweld</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4491,6 +4711,11 @@
           <t>diensten aanbieden</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4503,6 +4728,11 @@
           <t>een financiële nood ervaren</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4515,6 +4745,11 @@
           <t>nochtans</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4527,6 +4762,11 @@
           <t>in de nabijheid, buurt-</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4539,6 +4779,11 @@
           <t>in ruil voor</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4551,6 +4796,11 @@
           <t>bovenop</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4561,6 +4811,11 @@
       <c r="B51" t="inlineStr">
         <is>
           <t>natuurlijk</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>correct</t>
         </is>
       </c>
     </row>
@@ -4575,7 +4830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4586,12 +4841,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>une aide-magasin, une aide-magasin</t>
+          <t>un aide-magasin, une aide-magasin</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
           <t>een winkelhulp</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>correct</t>
         </is>
       </c>
     </row>
@@ -4606,6 +4866,11 @@
           <t>een animator, animatrice</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4618,6 +4883,11 @@
           <t>een troef, een voordeel</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4630,6 +4900,11 @@
           <t>een naamplaatje, een badge</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4642,6 +4917,11 @@
           <t>een beurs</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4654,6 +4934,11 @@
           <t>een kassier, kassierster</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4666,6 +4951,11 @@
           <t>een plukker, plukster</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4678,6 +4968,11 @@
           <t>een dogsitter</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4690,6 +4985,11 @@
           <t>een [solicitatie]gesprek, een onderhoud</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4702,6 +5002,11 @@
           <t>een ervaring</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4714,6 +5019,11 @@
           <t>een ritssluiting</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4726,6 +5036,11 @@
           <t>iets geks, een uitspatting</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4738,6 +5053,11 @@
           <t>een studentenjob</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4750,6 +5070,11 @@
           <t>een feestdag</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4762,6 +5087,11 @@
           <t>een motivatiebrief, een solicitatiebrief</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4774,6 +5104,11 @@
           <t>een bezorger, bezorgster</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4786,6 +5121,11 @@
           <t>een student, studente [15-16]+</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4798,6 +5138,11 @@
           <t>een kunstwinkel</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4810,6 +5155,11 @@
           <t>het in orde brengen</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4822,6 +5172,11 @@
           <t>een instructeur, een instructrice</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4834,6 +5189,11 @@
           <t>het poetsen</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4846,6 +5206,11 @@
           <t>de olieverf</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4858,6 +5223,11 @@
           <t>een afwasser, afwasster</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4870,6 +5240,11 @@
           <t>een privéleraar, een privélerares</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4882,6 +5257,11 @@
           <t>een promojongen, een promomeisje</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4894,6 +5274,11 @@
           <t>het opruimen</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4906,6 +5291,11 @@
           <t>een afspraak</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4918,6 +5308,11 @@
           <t>een ober, serveerster</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4930,6 +5325,11 @@
           <t>een tatoeage</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4942,6 +5342,11 @@
           <t>een spoor</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4954,6 +5359,11 @@
           <t>een verftube</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4966,6 +5376,11 @@
           <t>beschikbaar, vrij</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4978,6 +5393,11 @@
           <t>opgewonden</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4990,6 +5410,11 @@
           <t>buitengewoon</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5002,6 +5427,11 @@
           <t>genant, beschamend</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5014,6 +5444,11 @@
           <t>onverklaarbaar</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5026,6 +5461,11 @@
           <t>zeer belangerijk</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5038,6 +5478,11 @@
           <t>gewoon</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5050,6 +5495,11 @@
           <t>spannend</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5062,6 +5512,11 @@
           <t>onthalen</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5074,6 +5529,11 @@
           <t>maken, fabriceren</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5086,6 +5546,11 @@
           <t>negeren, niet weten</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5098,6 +5563,11 @@
           <t>solliciteren</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5110,6 +5580,11 @@
           <t>[uit]schreeuwen</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5122,6 +5597,11 @@
           <t>trillen</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5134,16 +5614,26 @@
           <t>deeltijds</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>a temps plein</t>
+          <t>à temps plein</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>voltijds</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>correct</t>
         </is>
       </c>
     </row>
@@ -5158,6 +5648,11 @@
           <t>honingkleurige haren hebben</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5170,6 +5665,11 @@
           <t>verwarde haren hebben</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5182,6 +5682,11 @@
           <t>benadrukken, accentueren</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5194,6 +5699,11 @@
           <t>dat zou me verbazen</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5206,6 +5716,11 @@
           <t>Past dat voor u?</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5218,6 +5733,11 @@
           <t>Past dat voor u?</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5228,6 +5748,11 @@
       <c r="B54" t="inlineStr">
         <is>
           <t>Geen probleem!</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>correct</t>
         </is>
       </c>
     </row>
@@ -5242,7 +5767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5261,6 +5786,11 @@
           <t>een immobiliënagent</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -5273,6 +5803,11 @@
           <t>een chirurg, chirurge</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5285,6 +5820,11 @@
           <t>een criminoloog, een criminologe</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5297,6 +5837,11 @@
           <t>een schrijver, een schrijfster</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5309,6 +5854,11 @@
           <t>een leraar, lerares [lagere school]</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5321,6 +5871,11 @@
           <t>een huisvader, huismoeder</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5333,6 +5888,11 @@
           <t>een plan, een project</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5345,6 +5905,11 @@
           <t>een psychiater</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5357,6 +5922,11 @@
           <t>een psycholoog, psychologe</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5369,6 +5939,11 @@
           <t>een verloskundige, een vroedvrouw</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5381,6 +5956,11 @@
           <t>de humane wetenschappen</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5393,6 +5973,11 @@
           <t>een wetenschapper, een wetenschapster</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -5405,6 +5990,11 @@
           <t>wensen</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -5417,6 +6007,11 @@
           <t>groenten kweken</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5429,6 +6024,11 @@
           <t>de grond bewerken</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -5441,6 +6041,11 @@
           <t>werkloos zijn</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5453,6 +6058,11 @@
           <t>op rust, gepensioneerd zijn</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5465,6 +6075,11 @@
           <t>zorg dragen voor</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>correct</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5475,6 +6090,11 @@
       <c r="B19" t="inlineStr">
         <is>
           <t>zelfstandige zijn, voor eigen rekening werken</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>correct</t>
         </is>
       </c>
     </row>
